--- a/data/subjects.xlsx
+++ b/data/subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpotier/BienJoue/BJAnal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF424B3-0A11-5640-897E-3F770F0B9835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5086A272-ADF8-5F4D-BF11-EDD812955316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>subj_num</t>
   </si>
@@ -160,6 +160,42 @@
   </si>
   <si>
     <t>ejef8lnkem</t>
+  </si>
+  <si>
+    <t>b0kwryrj2v</t>
+  </si>
+  <si>
+    <t>9beh804k32</t>
+  </si>
+  <si>
+    <t>kefszyv1jc</t>
+  </si>
+  <si>
+    <t>ytcluxpl10</t>
+  </si>
+  <si>
+    <t>7ufqgzowuw</t>
+  </si>
+  <si>
+    <t>jss8cdk21f</t>
+  </si>
+  <si>
+    <t>jw0kwnz6ay</t>
+  </si>
+  <si>
+    <t>5064xq80vo</t>
+  </si>
+  <si>
+    <t>5kr6v9l3k3</t>
+  </si>
+  <si>
+    <t>5owz2tdzlf</t>
+  </si>
+  <si>
+    <t>jxd9856xq7</t>
+  </si>
+  <si>
+    <t>tv1ychurkt</t>
   </si>
 </sst>
 </file>
@@ -514,11 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A4BB99-83C1-A547-81AF-617F12988F8C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,15 +619,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>204</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>204</v>
       </c>
@@ -622,15 +660,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>205</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>205</v>
       </c>
@@ -660,15 +701,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>206</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>206</v>
       </c>
@@ -698,15 +742,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>207</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>207</v>
       </c>
@@ -736,15 +783,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>208</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>208</v>
       </c>
@@ -774,15 +824,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>209</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>209</v>
       </c>
@@ -812,15 +865,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>210</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>210</v>
       </c>
@@ -850,15 +906,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>211</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>211</v>
       </c>
@@ -888,15 +947,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>212</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>212</v>
       </c>
@@ -926,15 +988,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>213</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>213</v>
       </c>
@@ -964,15 +1029,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>214</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>214</v>
       </c>
@@ -1002,15 +1070,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>215</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>215</v>
       </c>
@@ -1018,18 +1089,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H62" s="1" t="s">
         <v>36</v>
@@ -1072,12 +1131,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H61" xr:uid="{8301D7BA-C39E-4B40-8218-F8429A7312D0}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="minPseudo"/>
-        <filter val="minWord"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H61">
       <sortCondition ref="A1:A61"/>
     </sortState>

--- a/data/subjects.xlsx
+++ b/data/subjects.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpotier/BienJoue/BJAnal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5086A272-ADF8-5F4D-BF11-EDD812955316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47B2B7B-86F4-8545-AE38-4929766FAB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$81</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
   <si>
     <t>subj_num</t>
   </si>
@@ -138,30 +138,6 @@
     <t>fgvgxn7qyg</t>
   </si>
   <si>
-    <t>y94qvtjmo9</t>
-  </si>
-  <si>
-    <t>fcnn4svvz2</t>
-  </si>
-  <si>
-    <t>t1s87n1dn7</t>
-  </si>
-  <si>
-    <t>uchpnj4spw</t>
-  </si>
-  <si>
-    <t>k5agfdf6b2</t>
-  </si>
-  <si>
-    <t>1j1nypf7jm</t>
-  </si>
-  <si>
-    <t>sdkx14cuje</t>
-  </si>
-  <si>
-    <t>ejef8lnkem</t>
-  </si>
-  <si>
     <t>b0kwryrj2v</t>
   </si>
   <si>
@@ -196,6 +172,78 @@
   </si>
   <si>
     <t>tv1ychurkt</t>
+  </si>
+  <si>
+    <t>9su88zhdva</t>
+  </si>
+  <si>
+    <t>476e39bue5</t>
+  </si>
+  <si>
+    <t>nx64a91jo7</t>
+  </si>
+  <si>
+    <t>1w84znxqb0</t>
+  </si>
+  <si>
+    <t>j05axsu9nf</t>
+  </si>
+  <si>
+    <t>7lp93h6rxn</t>
+  </si>
+  <si>
+    <t>dq33u22d9p</t>
+  </si>
+  <si>
+    <t>qho7rql4zr</t>
+  </si>
+  <si>
+    <t>ko1g7dt1b1</t>
+  </si>
+  <si>
+    <t>al2a5vnbbu</t>
+  </si>
+  <si>
+    <t>qddtkt7xha</t>
+  </si>
+  <si>
+    <t>tkx7f34enl</t>
+  </si>
+  <si>
+    <t>9uu6a0rl6x</t>
+  </si>
+  <si>
+    <t>kpz3kt5ape</t>
+  </si>
+  <si>
+    <t>didnotwork</t>
+  </si>
+  <si>
+    <t>m63kjvg9ge</t>
+  </si>
+  <si>
+    <t>ds7jzbv23v</t>
+  </si>
+  <si>
+    <t>eow8ku8bt5</t>
+  </si>
+  <si>
+    <t>o2tplclq5f</t>
+  </si>
+  <si>
+    <t>31zxcygwq3</t>
+  </si>
+  <si>
+    <t>zo59f2gfnw</t>
+  </si>
+  <si>
+    <t>e783b8p2kk</t>
+  </si>
+  <si>
+    <t>tb383ktv9d</t>
+  </si>
+  <si>
+    <t>wdcxtwun4e</t>
   </si>
 </sst>
 </file>
@@ -550,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A4BB99-83C1-A547-81AF-617F12988F8C}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K26" sqref="K1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,9 +614,7 @@
     <col min="8" max="8" width="26.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="117.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -619,7 +665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>204</v>
       </c>
@@ -627,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -668,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -709,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -750,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -791,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -832,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -873,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -914,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -955,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -996,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1037,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1078,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -1089,48 +1135,336 @@
         <v>11</v>
       </c>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>216</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>216</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>216</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>216</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>217</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>217</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>217</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>217</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>218</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>218</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>218</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>218</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>219</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H62" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>219</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H63" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>219</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H64" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>219</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>220</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H66" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>220</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H67" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>220</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H68" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H69" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>220</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>221</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>221</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>221</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>221</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>222</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>222</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>222</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>222</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>223</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>223</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>223</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>223</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H61" xr:uid="{8301D7BA-C39E-4B40-8218-F8429A7312D0}">
+  <autoFilter ref="A1:H81" xr:uid="{8301D7BA-C39E-4B40-8218-F8429A7312D0}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H61">
       <sortCondition ref="A1:A61"/>
     </sortState>

--- a/data/subjects.xlsx
+++ b/data/subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpotier/BienJoue/BJAnal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47B2B7B-86F4-8545-AE38-4929766FAB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8804D522-0125-444E-9325-C01DA3EC85A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="145">
   <si>
     <t>subj_num</t>
   </si>
@@ -244,6 +244,225 @@
   </si>
   <si>
     <t>wdcxtwun4e</t>
+  </si>
+  <si>
+    <t>k5agfdf6b2</t>
+  </si>
+  <si>
+    <t>p5xocdb5bx</t>
+  </si>
+  <si>
+    <t>y94qvtjmo9</t>
+  </si>
+  <si>
+    <t>xn8mq950tz</t>
+  </si>
+  <si>
+    <t>a4yfnpm6y3</t>
+  </si>
+  <si>
+    <t>fcnn4svvz2</t>
+  </si>
+  <si>
+    <t>1j1nypf7jm</t>
+  </si>
+  <si>
+    <t>tsom34nl48</t>
+  </si>
+  <si>
+    <t>29ywe5qaee</t>
+  </si>
+  <si>
+    <t>sdkx14cuje</t>
+  </si>
+  <si>
+    <t>t1s87n1dn7</t>
+  </si>
+  <si>
+    <t>nk8qv837s9</t>
+  </si>
+  <si>
+    <t>hwuekexp5d</t>
+  </si>
+  <si>
+    <t>ejef8lnkem</t>
+  </si>
+  <si>
+    <t>uchpnj4spw</t>
+  </si>
+  <si>
+    <t>0l1lsnqfst</t>
+  </si>
+  <si>
+    <t>ux80rzchkn</t>
+  </si>
+  <si>
+    <t>r4q10nmnxd</t>
+  </si>
+  <si>
+    <t>aa56y2xw4c</t>
+  </si>
+  <si>
+    <t>t50q4m4hhm</t>
+  </si>
+  <si>
+    <t>mxd5jedqok</t>
+  </si>
+  <si>
+    <t>xmjzr5jz39</t>
+  </si>
+  <si>
+    <t>0u9ombxcqp</t>
+  </si>
+  <si>
+    <t>aqaetv5tyh</t>
+  </si>
+  <si>
+    <t>06g05bg8n7</t>
+  </si>
+  <si>
+    <t>mw2khozboy</t>
+  </si>
+  <si>
+    <t>od0htb8x7g</t>
+  </si>
+  <si>
+    <t>ujx6ub6asv</t>
+  </si>
+  <si>
+    <t>nfbev2rj3u</t>
+  </si>
+  <si>
+    <t>vjpwz2ofry</t>
+  </si>
+  <si>
+    <t>0u32l6ytbv</t>
+  </si>
+  <si>
+    <t>pvr2ocbhnv</t>
+  </si>
+  <si>
+    <t>7hdxet10pk</t>
+  </si>
+  <si>
+    <t>eh948opakr</t>
+  </si>
+  <si>
+    <t>p7dch3nkzf</t>
+  </si>
+  <si>
+    <t>g8fcwgsub1</t>
+  </si>
+  <si>
+    <t>gb0hfmkwdu</t>
+  </si>
+  <si>
+    <t>qd24rn6sw1</t>
+  </si>
+  <si>
+    <t>w0tochtwsl</t>
+  </si>
+  <si>
+    <t>746nv3qrxy</t>
+  </si>
+  <si>
+    <t>fouvmd4e09</t>
+  </si>
+  <si>
+    <t>br76mp9tgg</t>
+  </si>
+  <si>
+    <t>tnw3lp198a</t>
+  </si>
+  <si>
+    <t>p3ecgun6no</t>
+  </si>
+  <si>
+    <t>la1y71xt66</t>
+  </si>
+  <si>
+    <t>h2m3k7dc35</t>
+  </si>
+  <si>
+    <t>98joag62dn</t>
+  </si>
+  <si>
+    <t>nl9sv69k7a</t>
+  </si>
+  <si>
+    <t>ys2ak2etnt</t>
+  </si>
+  <si>
+    <t>jbszk1w4kh</t>
+  </si>
+  <si>
+    <t>2yvccs356t</t>
+  </si>
+  <si>
+    <t>p7z4youdtt</t>
+  </si>
+  <si>
+    <t>duml0dklwq</t>
+  </si>
+  <si>
+    <t>4nnsrw9lkr</t>
+  </si>
+  <si>
+    <t>8cg5pj16km</t>
+  </si>
+  <si>
+    <t>s9o0vh5jrm</t>
+  </si>
+  <si>
+    <t>rx9of98t48</t>
+  </si>
+  <si>
+    <t>p3egwams5p</t>
+  </si>
+  <si>
+    <t>htppsusmu9</t>
+  </si>
+  <si>
+    <t>e0hbk8lu4p</t>
+  </si>
+  <si>
+    <t>t1589n5lnd</t>
+  </si>
+  <si>
+    <t>5u41b52w4f</t>
+  </si>
+  <si>
+    <t>ot3ybxeu1z</t>
+  </si>
+  <si>
+    <t>kyr10wlo47</t>
+  </si>
+  <si>
+    <t>mbujhc23l1</t>
+  </si>
+  <si>
+    <t>polnbybt6w</t>
+  </si>
+  <si>
+    <t>w3su56jyjn</t>
+  </si>
+  <si>
+    <t>hc9glnfu4t</t>
+  </si>
+  <si>
+    <t>33jpbkk6ul</t>
+  </si>
+  <si>
+    <t>1p2wmdpveq</t>
+  </si>
+  <si>
+    <t>mvaz7zj6sc</t>
+  </si>
+  <si>
+    <t>p069416k1y</t>
+  </si>
+  <si>
+    <t>0vfn5ymyba</t>
   </si>
 </sst>
 </file>
@@ -302,7 +521,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -598,15 +817,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A4BB99-83C1-A547-81AF-617F12988F8C}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K1:O1048576"/>
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="0.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="0.1640625" style="1" hidden="1" customWidth="1"/>
@@ -683,6 +903,9 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -724,6 +947,9 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -765,6 +991,9 @@
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -806,6 +1035,9 @@
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H17" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -888,6 +1120,9 @@
       <c r="G25" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H25" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -929,6 +1164,9 @@
       <c r="G29" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H29" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -970,6 +1208,9 @@
       <c r="G33" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H33" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -1011,6 +1252,9 @@
       <c r="G37" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H37" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -1052,6 +1296,9 @@
       <c r="G41" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H41" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -1093,6 +1340,9 @@
       <c r="G45" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H45" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -1134,6 +1384,9 @@
       <c r="G49" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H49" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -1175,6 +1428,9 @@
       <c r="G53" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H53" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -1216,6 +1472,9 @@
       <c r="G57" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H57" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
@@ -1257,6 +1516,9 @@
       <c r="G61" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H61" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
@@ -1298,6 +1560,9 @@
       <c r="G65" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H65" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
@@ -1339,6 +1604,9 @@
       <c r="G69" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H69" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
@@ -1380,6 +1648,9 @@
       <c r="G73" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H73" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
@@ -1421,6 +1692,9 @@
       <c r="G77" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H77" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -1455,11 +1729,816 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>223</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>301</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>301</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>301</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>301</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>302</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>302</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>302</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>302</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>303</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>303</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>303</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>303</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>304</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>304</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>304</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>304</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>305</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>305</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>305</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>305</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>306</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>306</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>306</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>306</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>307</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>307</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>307</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>307</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>308</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>308</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>308</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>308</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>309</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>309</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>309</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>309</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>310</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>310</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>310</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>310</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>311</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>311</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>311</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>311</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>312</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>312</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>312</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>312</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>313</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>313</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>313</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>313</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>314</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>314</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>314</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>314</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>315</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>315</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>315</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>315</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>316</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>316</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>316</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>316</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>317</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>317</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>317</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>317</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>318</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>318</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>318</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>318</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>319</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>319</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>319</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>319</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>320</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>320</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>320</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>320</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/subjects.xlsx
+++ b/data/subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpotier/BienJoue/BJAnal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8804D522-0125-444E-9325-C01DA3EC85A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A271A721-1D39-3A43-9CE3-2F90412D0E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="147">
   <si>
     <t>subj_num</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>0vfn5ymyba</t>
+  </si>
+  <si>
+    <t>z8zowa70hc</t>
+  </si>
+  <si>
+    <t>cc5u63ks9m</t>
   </si>
 </sst>
 </file>
@@ -819,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A4BB99-83C1-A547-81AF-617F12988F8C}">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2033,6 +2039,9 @@
       <c r="G108" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H108" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -2040,6 +2049,9 @@
       </c>
       <c r="G109" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/subjects.xlsx
+++ b/data/subjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpotier/BienJoue/BJAnal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A271A721-1D39-3A43-9CE3-2F90412D0E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF1CEE-6C32-6642-8666-2A10175EA15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$137</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="149">
   <si>
     <t>subj_num</t>
   </si>
@@ -469,16 +469,29 @@
   </si>
   <si>
     <t>cc5u63ks9m</t>
+  </si>
+  <si>
+    <t>copied 218 for now</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,9 +517,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A4BB99-83C1-A547-81AF-617F12988F8C}">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +859,7 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,8 +884,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>204</v>
       </c>
@@ -880,7 +899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>204</v>
       </c>
@@ -891,7 +910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>204</v>
       </c>
@@ -902,7 +921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>204</v>
       </c>
@@ -913,7 +932,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>205</v>
       </c>
@@ -924,7 +943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>205</v>
       </c>
@@ -935,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>205</v>
       </c>
@@ -946,7 +965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>205</v>
       </c>
@@ -957,7 +976,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>206</v>
       </c>
@@ -968,7 +987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>206</v>
       </c>
@@ -979,7 +998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>206</v>
       </c>
@@ -990,7 +1009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>206</v>
       </c>
@@ -1001,7 +1020,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>207</v>
       </c>
@@ -1012,7 +1031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>207</v>
       </c>
@@ -1023,7 +1042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>207</v>
       </c>
@@ -1383,7 +1402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>215</v>
       </c>
@@ -1394,7 +1413,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>216</v>
       </c>
@@ -1405,7 +1424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>216</v>
       </c>
@@ -1416,7 +1435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>216</v>
       </c>
@@ -1427,7 +1446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>216</v>
       </c>
@@ -1438,7 +1457,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>217</v>
       </c>
@@ -1449,7 +1468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>217</v>
       </c>
@@ -1460,7 +1479,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>217</v>
       </c>
@@ -1471,7 +1490,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>217</v>
       </c>
@@ -1482,7 +1501,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>218</v>
       </c>
@@ -1493,7 +1512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>218</v>
       </c>
@@ -1504,7 +1523,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>218</v>
       </c>
@@ -1515,7 +1534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>218</v>
       </c>
@@ -1526,18 +1545,21 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>219</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>219</v>
       </c>
@@ -1548,7 +1570,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>219</v>
       </c>
@@ -2362,204 +2384,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>315</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>315</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>315</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>315</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>316</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>316</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>316</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>316</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>317</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>317</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>317</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>317</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>318</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>318</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>318</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
-        <v>318</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>319</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>319</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>319</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>319</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>320</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>320</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>320</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>320</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H81" xr:uid="{8301D7BA-C39E-4B40-8218-F8429A7312D0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H61">
-      <sortCondition ref="A1:A61"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:I137" xr:uid="{CB0864BB-5719-934E-B410-69FC3123B5E8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/subjects.xlsx
+++ b/data/subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpotier/BienJoue/BJAnal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF1CEE-6C32-6642-8666-2A10175EA15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9336C-6C42-CE45-B623-6215683D874C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$137</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A4BB99-83C1-A547-81AF-617F12988F8C}">
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I137"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/subjects.xlsx
+++ b/data/subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpotier/BienJoue/BJAnal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9336C-6C42-CE45-B623-6215683D874C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E600185D-4DE1-CD49-BDC6-2E40E070A6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4CA2F768-A5D5-E44D-8C86-B547C0D367B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="177">
   <si>
     <t>subj_num</t>
   </si>
@@ -475,6 +475,90 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>mbse2ual93</t>
+  </si>
+  <si>
+    <t>zvtxod636o</t>
+  </si>
+  <si>
+    <t>v7hpnfwykc</t>
+  </si>
+  <si>
+    <t>ekge7117c0</t>
+  </si>
+  <si>
+    <t>vfdk659lm2</t>
+  </si>
+  <si>
+    <t>dyhqkv4y90</t>
+  </si>
+  <si>
+    <t>ellh3f7r6f</t>
+  </si>
+  <si>
+    <t>b0n958l42w</t>
+  </si>
+  <si>
+    <t>dmcfba923s</t>
+  </si>
+  <si>
+    <t>8jm4ktdp2v</t>
+  </si>
+  <si>
+    <t>g3h6mfmlh9</t>
+  </si>
+  <si>
+    <t>bvzbcex95y</t>
+  </si>
+  <si>
+    <t>sedpugnmk5</t>
+  </si>
+  <si>
+    <t>6ee8c6wkk7</t>
+  </si>
+  <si>
+    <t>a8fzyae532</t>
+  </si>
+  <si>
+    <t>7xjxwvk39u</t>
+  </si>
+  <si>
+    <t>37uuqlft2a</t>
+  </si>
+  <si>
+    <t>qgecou8jlo</t>
+  </si>
+  <si>
+    <t>z4rx8bqocr</t>
+  </si>
+  <si>
+    <t>ma2hmr7lqa</t>
+  </si>
+  <si>
+    <t>6tavb9lkp3</t>
+  </si>
+  <si>
+    <t>b2jojnaqxl</t>
+  </si>
+  <si>
+    <t>50ppjg6by9</t>
+  </si>
+  <si>
+    <t>o8rq1gza2t</t>
+  </si>
+  <si>
+    <t>wtc1en8xqx</t>
+  </si>
+  <si>
+    <t>24mprbt056</t>
+  </si>
+  <si>
+    <t>s5qctl4onx</t>
+  </si>
+  <si>
+    <t>fzegt6t3y1</t>
   </si>
 </sst>
 </file>
@@ -517,12 +601,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,7 +630,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -839,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A4BB99-83C1-A547-81AF-617F12988F8C}">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2384,6 +2471,314 @@
         <v>99</v>
       </c>
     </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>315</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>315</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>315</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>315</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>316</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>316</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>316</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>316</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>317</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>317</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>317</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>317</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>318</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>318</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>318</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>318</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>319</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>319</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>319</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>319</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>320</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>320</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>320</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>320</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>321</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>321</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>321</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>321</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I137" xr:uid="{CB0864BB-5719-934E-B410-69FC3123B5E8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
